--- a/ANH_WMS_상품DB_재구성.xlsx
+++ b/ANH_WMS_상품DB_재구성.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ANH_WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F7D0AC-3D70-4960-802D-BDF759A7467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F8C513-730E-4CEB-B41B-47B951608E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40590" yWindow="2145" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="categories" sheetId="2" r:id="rId2"/>
     <sheet name="clients" sheetId="3" r:id="rId3"/>
     <sheet name="products" sheetId="4" r:id="rId4"/>
-    <sheet name="product_barcodes" sheetId="5" r:id="rId5"/>
-    <sheet name="name_history_template" sheetId="6" r:id="rId6"/>
+    <sheet name="name_history_template" sheetId="6" r:id="rId5"/>
+    <sheet name="product_barcodes" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">categories!$A$1:$C$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">clients!$A$1:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">name_history_template!$A$1:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">product_barcodes!$A$1:$G$1294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">name_history_template!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">product_barcodes!$A$1:$G$1294</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">products!$A$1:$J$1294</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -12358,7 +12359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -54072,6 +54075,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3972</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3973</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3974</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3975</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G1294"/>
   <sheetViews>
@@ -83853,53 +83907,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3970</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3971</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3972</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3973</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3974</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3975</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3976</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>